--- a/PM1/project-planning/week6/WBS Estimacion de tiempo y recursos.xlsx
+++ b/PM1/project-planning/week6/WBS Estimacion de tiempo y recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM1\project-planning\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFC04E7-DFFC-45B6-A481-66E3A3C84739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573C1B5-D53C-4708-97EF-ADB04D895E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="309">
   <si>
     <t>to</t>
   </si>
@@ -897,9 +897,6 @@
     <t>1 IT, 1 pc, 1 cuenta Free de Heroku</t>
   </si>
   <si>
-    <t>1 IT, 1 pc, 1 cuenta MongoDB Atlas por 1 TB de memoria ($)</t>
-  </si>
-  <si>
     <t>Estimación de duración y recursos</t>
   </si>
   <si>
@@ -922,16 +919,62 @@
   </si>
   <si>
     <t>Mariana Ávalos</t>
+  </si>
+  <si>
+    <t>Hosting (4TB de memoria)</t>
+  </si>
+  <si>
+    <t>1 IT, 1 pc, 1 cuenta tipo Dedicated MongoDB Atlas por 4 TB de memoria ($)</t>
+  </si>
+  <si>
+    <t>Github PRO (1 cuenta)</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Por Mes</t>
+  </si>
+  <si>
+    <t>Recursos Digitales</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>1 Diseñador</t>
+  </si>
+  <si>
+    <t>1 Programador Backend</t>
+  </si>
+  <si>
+    <t>1 Programador Frontend</t>
+  </si>
+  <si>
+    <t>1 Ingeniero DevOps</t>
+  </si>
+  <si>
+    <t>1 Administrador de logística</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Costos</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,8 +1008,36 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1098,18 @@
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1304,11 +1385,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1411,13 +1529,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1435,9 +1553,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1651,17 +1821,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K993"/>
+  <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
@@ -1672,19 +1844,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -1705,13 +1877,11 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -1731,7 +1901,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>10</v>
@@ -1751,7 +1921,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
@@ -1784,7 +1954,7 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>16</v>
@@ -1817,7 +1987,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>19</v>
@@ -3150,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>173</v>
@@ -3933,7 +4103,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3941,119 +4111,218 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+    <row r="92" spans="2:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>306</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+    <row r="93" spans="2:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="B94" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="48">
+        <v>1150</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8</v>
+      </c>
+      <c r="E94" s="50">
+        <f>C94*D94</f>
+        <v>9200</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+    <row r="95" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="56">
+        <v>385</v>
+      </c>
+      <c r="D95" s="57">
+        <v>12</v>
+      </c>
+      <c r="E95" s="58">
+        <f>C95*D95</f>
+        <v>4620</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
+    <row r="96" spans="2:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="47"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="D96" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" s="50">
+        <f>SUM(E94:E95)</f>
+        <v>13820</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="B97" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="B98" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" s="48">
+        <v>12000</v>
+      </c>
+      <c r="D98" s="49">
+        <v>8</v>
+      </c>
+      <c r="E98" s="50">
+        <f>C98*D98</f>
+        <v>96000</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="B99" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="48">
+        <v>12000</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6</v>
+      </c>
+      <c r="E99" s="50">
+        <f>C99*D99</f>
+        <v>72000</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="B100" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="48">
+        <v>15000</v>
+      </c>
+      <c r="D100" s="2">
+        <v>6</v>
+      </c>
+      <c r="E100" s="50">
+        <f t="shared" ref="E100:E103" si="17">C100*D100</f>
+        <v>90000</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="B101" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="48">
+        <v>15000</v>
+      </c>
+      <c r="D101" s="2">
+        <v>6</v>
+      </c>
+      <c r="E101" s="50">
+        <f t="shared" si="17"/>
+        <v>90000</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="B102" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="48">
+        <v>16000</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3</v>
+      </c>
+      <c r="E102" s="50">
+        <f t="shared" si="17"/>
+        <v>48000</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+    <row r="103" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="56">
+        <v>12000</v>
+      </c>
+      <c r="D103" s="57">
+        <v>8</v>
+      </c>
+      <c r="E103" s="58">
+        <f t="shared" si="17"/>
+        <v>96000</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="D104" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E104" s="50">
+        <f>SUM(E98:E103)</f>
+        <v>492000</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+    <row r="105" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="62">
+        <f>E96+E104</f>
+        <v>505820</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -11156,6 +11425,30 @@
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
       <c r="G993" s="2"/>
+    </row>
+    <row r="994" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="3"/>
+      <c r="C994" s="2"/>
+      <c r="D994" s="2"/>
+      <c r="E994" s="2"/>
+      <c r="F994" s="2"/>
+      <c r="G994" s="2"/>
+    </row>
+    <row r="995" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="3"/>
+      <c r="C995" s="2"/>
+      <c r="D995" s="2"/>
+      <c r="E995" s="2"/>
+      <c r="F995" s="2"/>
+      <c r="G995" s="2"/>
+    </row>
+    <row r="996" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="3"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="2"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+      <c r="G996" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11167,7 +11460,7 @@
     <hyperlink ref="I49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/PM1/project-planning/week6/WBS Estimacion de tiempo y recursos.xlsx
+++ b/PM1/project-planning/week6/WBS Estimacion de tiempo y recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM1\project-planning\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573C1B5-D53C-4708-97EF-ADB04D895E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89FFD57-615C-4DE8-A8A8-8AA779E7F67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4216,14 +4216,14 @@
         <v>301</v>
       </c>
       <c r="C99" s="48">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D99" s="2">
         <v>6</v>
       </c>
       <c r="E99" s="50">
         <f>C99*D99</f>
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4233,14 +4233,14 @@
         <v>302</v>
       </c>
       <c r="C100" s="48">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="D100" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="50">
         <f t="shared" ref="E100:E103" si="17">C100*D100</f>
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -4250,14 +4250,14 @@
         <v>303</v>
       </c>
       <c r="C101" s="48">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="D101" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" s="50">
         <f t="shared" si="17"/>
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -4270,11 +4270,11 @@
         <v>16000</v>
       </c>
       <c r="D102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="50">
         <f t="shared" si="17"/>
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4284,14 +4284,14 @@
         <v>305</v>
       </c>
       <c r="C103" s="56">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D103" s="57">
         <v>8</v>
       </c>
       <c r="E103" s="58">
         <f t="shared" si="17"/>
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E104" s="50">
         <f>SUM(E98:E103)</f>
-        <v>492000</v>
+        <v>394000</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -4317,7 +4317,7 @@
       <c r="D105" s="61"/>
       <c r="E105" s="62">
         <f>E96+E104</f>
-        <v>505820</v>
+        <v>407820</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
